--- a/medicine/Psychotrope/Le_Convoi_(film,_2016)/Le_Convoi_(film,_2016).xlsx
+++ b/medicine/Psychotrope/Le_Convoi_(film,_2016)/Le_Convoi_(film,_2016).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Convoi est un film à suspense français réalisé par Frédéric Schoendoerffer et sorti en 2016.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Organisés en go fast, sept hommes, répartis dans quatre voitures, convoient une tonne quatre cents de résine de cannabis au départ de Malaga dans le Sud de l’Espagne. Direction Creil en banlieue parisienne. Mais pour Alex, Yacine, Majid et les autres, ce qui aurait dû être un convoi ordinaire va devenir un convoi fatal. Sept hommes mais très vite une femme aussi, Nadia, une jeune touriste française qui remonte d’un voyage au Maroc, embarquée malgré elle dans l’aventure parce qu’elle était au mauvais endroit au mauvais moment. Une plongée au cœur du trafic, le temps d’une journée, avec les hommes qui en vivent.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Convoi
 Réalisation : Frédéric Schoendoerffer
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Magimel : Alex
 Reem Kherici : Nadia
